--- a/data/homepage.xlsx
+++ b/data/homepage.xlsx
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1669,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>188434.07</v>
+        <v>298308.58999999997</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>152656.01</v>
+        <v>241255.47000000003</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>59738.520000000004</v>
+        <v>94248.960000000006</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1702,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="2">
-        <v>7384</v>
+        <v>11694</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1713,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>4107684.9499999997</v>
+        <v>4217559.47</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>3480183.4899999993</v>
+        <v>3568782.9499999993</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>1189104.2</v>
+        <v>1223614.6400000001</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>158544</v>
+        <v>162854</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1757,7 +1757,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>32573008.750999827</v>
+        <v>32682883.270999826</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>19510053.560000002</v>
+        <v>19598653.020000003</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>11470813.090000002</v>
+        <v>11505323.530000001</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>1256171</v>
+        <v>1260481</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6959,7 +6959,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6977,7 +6977,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45912</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -7044,18 +7044,18 @@
       </c>
       <c r="B11" s="4">
         <f>Metrics!B2</f>
-        <v>188434.07</v>
+        <v>298308.58999999997</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5">
         <f>B11</f>
-        <v>188434.07</v>
+        <v>298308.58999999997</v>
       </c>
       <c r="F11" s="5">
         <f>E11+B3</f>
-        <v>188434.07</v>
+        <v>298308.58999999997</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -7065,18 +7065,18 @@
       </c>
       <c r="B12" s="4">
         <f>Metrics!B3</f>
-        <v>152656.01</v>
+        <v>241255.47000000003</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E22" si="0">B12</f>
-        <v>152656.01</v>
+        <v>241255.47000000003</v>
       </c>
       <c r="F12" s="5">
         <f>E12+B4</f>
-        <v>152656.01</v>
+        <v>241255.47000000003</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -7086,18 +7086,18 @@
       </c>
       <c r="B13" s="4">
         <f>Metrics!B4</f>
-        <v>59738.520000000004</v>
+        <v>94248.960000000006</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>59738.520000000004</v>
+        <v>94248.960000000006</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ref="F13" si="1">E13+B5</f>
-        <v>59738.520000000004</v>
+        <v>94248.960000000006</v>
       </c>
       <c r="I13" s="5"/>
       <c r="L13" s="4"/>
@@ -7108,18 +7108,18 @@
       </c>
       <c r="B14" s="4">
         <f>Metrics!B5</f>
-        <v>7384</v>
+        <v>11694</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>7384</v>
+        <v>11694</v>
       </c>
       <c r="F14" s="5">
         <f>E14+B6</f>
-        <v>7384</v>
+        <v>11694</v>
       </c>
       <c r="I14" s="5"/>
       <c r="L14" s="4"/>
@@ -7130,18 +7130,18 @@
       </c>
       <c r="B15" s="4">
         <f>Metrics!B6</f>
-        <v>4107684.9499999997</v>
+        <v>4217559.47</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>4107684.9499999997</v>
+        <v>4217559.47</v>
       </c>
       <c r="F15" s="5">
         <f>E15+B3</f>
-        <v>4107684.9499999997</v>
+        <v>4217559.47</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7152,18 +7152,18 @@
       </c>
       <c r="B16" s="4">
         <f>Metrics!B7</f>
-        <v>3480183.4899999993</v>
+        <v>3568782.9499999993</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>3480183.4899999993</v>
+        <v>3568782.9499999993</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="2">E16+B4</f>
-        <v>3480183.4899999993</v>
+        <v>3568782.9499999993</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -7173,18 +7173,18 @@
       </c>
       <c r="B17" s="4">
         <f>Metrics!B8</f>
-        <v>1189104.2</v>
+        <v>1223614.6400000001</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>1189104.2</v>
+        <v>1223614.6400000001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>1189104.2</v>
+        <v>1223614.6400000001</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -7194,18 +7194,18 @@
       </c>
       <c r="B18" s="4">
         <f>Metrics!B9</f>
-        <v>158544</v>
+        <v>162854</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>158544</v>
+        <v>162854</v>
       </c>
       <c r="F18" s="5">
         <f>E18+B6</f>
-        <v>158544</v>
+        <v>162854</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -7215,18 +7215,18 @@
       </c>
       <c r="B19" s="4">
         <f>Metrics!B10</f>
-        <v>32573008.750999827</v>
+        <v>32682883.270999826</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>32573008.750999827</v>
+        <v>32682883.270999826</v>
       </c>
       <c r="F19" s="5">
         <f>E19+B3</f>
-        <v>32573008.750999827</v>
+        <v>32682883.270999826</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -7236,18 +7236,18 @@
       </c>
       <c r="B20" s="4">
         <f>Metrics!B11</f>
-        <v>19510053.560000002</v>
+        <v>19598653.020000003</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>19510053.560000002</v>
+        <v>19598653.020000003</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F22" si="3">E20+B4</f>
-        <v>19510053.560000002</v>
+        <v>19598653.020000003</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -7257,18 +7257,18 @@
       </c>
       <c r="B21" s="4">
         <f>Metrics!B12</f>
-        <v>11470813.090000002</v>
+        <v>11505323.530000001</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>11470813.090000002</v>
+        <v>11505323.530000001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>11470813.090000002</v>
+        <v>11505323.530000001</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -7278,18 +7278,18 @@
       </c>
       <c r="B22" s="4">
         <f>Metrics!B13</f>
-        <v>1256171</v>
+        <v>1260481</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>1256171</v>
+        <v>1260481</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>1256171</v>
+        <v>1260481</v>
       </c>
       <c r="I22" s="5"/>
     </row>
